--- a/SchedulingData/dynamic10/pso/scheduling2_12.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>231.36</v>
+        <v>206.42</v>
       </c>
       <c r="D2" t="n">
-        <v>285.78</v>
+        <v>261.42</v>
       </c>
       <c r="E2" t="n">
-        <v>11.572</v>
+        <v>14.868</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>214.64</v>
+        <v>248.84</v>
       </c>
       <c r="D3" t="n">
-        <v>298.44</v>
+        <v>291.14</v>
       </c>
       <c r="E3" t="n">
-        <v>15.596</v>
+        <v>13.516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>247.26</v>
+        <v>208.5</v>
       </c>
       <c r="D4" t="n">
-        <v>298.62</v>
+        <v>272.6</v>
       </c>
       <c r="E4" t="n">
-        <v>13.308</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="5">
@@ -523,131 +523,131 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>233.48</v>
+        <v>291.14</v>
       </c>
       <c r="D5" t="n">
-        <v>287.58</v>
+        <v>355.36</v>
       </c>
       <c r="E5" t="n">
-        <v>11.892</v>
+        <v>11.184</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>298.62</v>
+        <v>261.42</v>
       </c>
       <c r="D6" t="n">
-        <v>360.28</v>
+        <v>316.28</v>
       </c>
       <c r="E6" t="n">
-        <v>10.272</v>
+        <v>12.492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>360.28</v>
+        <v>235.98</v>
       </c>
       <c r="D7" t="n">
-        <v>423.78</v>
+        <v>279.68</v>
       </c>
       <c r="E7" t="n">
-        <v>7.552</v>
+        <v>11.192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>228.42</v>
+        <v>272.6</v>
       </c>
       <c r="D8" t="n">
-        <v>286.66</v>
+        <v>334.04</v>
       </c>
       <c r="E8" t="n">
-        <v>14.504</v>
+        <v>10.876</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>287.58</v>
+        <v>224.2</v>
       </c>
       <c r="D9" t="n">
-        <v>322.2</v>
+        <v>282.12</v>
       </c>
       <c r="E9" t="n">
-        <v>9.56</v>
+        <v>13.448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>245.06</v>
+        <v>355.36</v>
       </c>
       <c r="D10" t="n">
-        <v>302.24</v>
+        <v>391.92</v>
       </c>
       <c r="E10" t="n">
-        <v>12.396</v>
+        <v>8.167999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>286.66</v>
+        <v>279.68</v>
       </c>
       <c r="D11" t="n">
-        <v>335.72</v>
+        <v>319.2</v>
       </c>
       <c r="E11" t="n">
-        <v>11.228</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -656,36 +656,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>423.78</v>
+        <v>282.12</v>
       </c>
       <c r="D12" t="n">
-        <v>482.86</v>
+        <v>320.46</v>
       </c>
       <c r="E12" t="n">
-        <v>4.744</v>
+        <v>10.744</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>298.44</v>
+        <v>233.04</v>
       </c>
       <c r="D13" t="n">
-        <v>337.96</v>
+        <v>290.44</v>
       </c>
       <c r="E13" t="n">
-        <v>13.264</v>
+        <v>14.896</v>
       </c>
     </row>
     <row r="14">
@@ -694,36 +694,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>335.72</v>
+        <v>316.28</v>
       </c>
       <c r="D14" t="n">
-        <v>368.62</v>
+        <v>370.38</v>
       </c>
       <c r="E14" t="n">
-        <v>9.068</v>
+        <v>9.192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>285.78</v>
+        <v>290.44</v>
       </c>
       <c r="D15" t="n">
-        <v>349.54</v>
+        <v>333.26</v>
       </c>
       <c r="E15" t="n">
-        <v>8.816000000000001</v>
+        <v>12.244</v>
       </c>
     </row>
     <row r="16">
@@ -732,74 +732,74 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>368.62</v>
+        <v>370.38</v>
       </c>
       <c r="D16" t="n">
-        <v>419.2</v>
+        <v>413.94</v>
       </c>
       <c r="E16" t="n">
-        <v>6.62</v>
+        <v>6.456</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>302.24</v>
+        <v>334.04</v>
       </c>
       <c r="D17" t="n">
-        <v>370.64</v>
+        <v>409.68</v>
       </c>
       <c r="E17" t="n">
-        <v>9.156000000000001</v>
+        <v>7.912</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>337.96</v>
+        <v>333.26</v>
       </c>
       <c r="D18" t="n">
-        <v>383.36</v>
+        <v>390.06</v>
       </c>
       <c r="E18" t="n">
-        <v>10.844</v>
+        <v>10.164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>370.64</v>
+        <v>409.68</v>
       </c>
       <c r="D19" t="n">
-        <v>421.48</v>
+        <v>447.38</v>
       </c>
       <c r="E19" t="n">
-        <v>6.192</v>
+        <v>5.272</v>
       </c>
     </row>
     <row r="20">
@@ -808,74 +808,74 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>383.36</v>
+        <v>447.38</v>
       </c>
       <c r="D20" t="n">
-        <v>452.66</v>
+        <v>502.48</v>
       </c>
       <c r="E20" t="n">
-        <v>7.544</v>
+        <v>2.852</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>452.66</v>
+        <v>320.46</v>
       </c>
       <c r="D21" t="n">
-        <v>494.2</v>
+        <v>396.22</v>
       </c>
       <c r="E21" t="n">
-        <v>4.52</v>
+        <v>8.247999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>419.2</v>
+        <v>390.06</v>
       </c>
       <c r="D22" t="n">
-        <v>476.9</v>
+        <v>437.62</v>
       </c>
       <c r="E22" t="n">
-        <v>3.98</v>
+        <v>7.028</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>349.54</v>
+        <v>437.62</v>
       </c>
       <c r="D23" t="n">
-        <v>392.26</v>
+        <v>479.84</v>
       </c>
       <c r="E23" t="n">
-        <v>6.164</v>
+        <v>4.436</v>
       </c>
     </row>
     <row r="24">
@@ -884,93 +884,112 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>322.2</v>
+        <v>391.92</v>
       </c>
       <c r="D24" t="n">
-        <v>373.9</v>
+        <v>431.3</v>
       </c>
       <c r="E24" t="n">
-        <v>7.48</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>482.86</v>
+        <v>431.3</v>
       </c>
       <c r="D25" t="n">
-        <v>520.08</v>
+        <v>469.1</v>
       </c>
       <c r="E25" t="n">
-        <v>2.152</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>421.48</v>
+        <v>319.2</v>
       </c>
       <c r="D26" t="n">
-        <v>481.44</v>
+        <v>363.26</v>
       </c>
       <c r="E26" t="n">
-        <v>3.816</v>
+        <v>5.584</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>392.26</v>
+        <v>396.22</v>
       </c>
       <c r="D27" t="n">
-        <v>431.74</v>
+        <v>469.78</v>
       </c>
       <c r="E27" t="n">
-        <v>3.356</v>
+        <v>5.492</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>373.9</v>
+        <v>469.78</v>
       </c>
       <c r="D28" t="n">
-        <v>450.9</v>
+        <v>525.5599999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>5.36</v>
+        <v>3.044</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>pond3</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>363.26</v>
+      </c>
+      <c r="D29" t="n">
+        <v>427.54</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.776</v>
       </c>
     </row>
   </sheetData>
